--- a/server/LISTAS/mi/CAÑO DE HIERRO DISMAY.xlsx
+++ b/server/LISTAS/mi/CAÑO DE HIERRO DISMAY.xlsx
@@ -789,7 +789,7 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" s="26">
       <c r="A1" s="25" t="n">
-        <v>45289</v>
+        <v>45308</v>
       </c>
       <c r="F1" s="3" t="n"/>
     </row>

--- a/server/LISTAS/mi/CAÑO DE HIERRO DISMAY.xlsx
+++ b/server/LISTAS/mi/CAÑO DE HIERRO DISMAY.xlsx
@@ -789,7 +789,7 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" s="26">
       <c r="A1" s="25" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="F1" s="3" t="n"/>
     </row>
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="D29" s="21" t="n">
-        <v>420</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1" s="26">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="D30" s="21" t="n">
-        <v>496</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="31" ht="19.5" customHeight="1" s="26">
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="D31" s="21" t="n">
-        <v>872</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="32" ht="19.5" customHeight="1" s="26">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="D32" s="21" t="n">
-        <v>977</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" s="26">
@@ -1004,13 +1004,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A9:E9"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.984251968503937" bottom="0.984251968503937" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/CAÑO DE HIERRO DISMAY.xlsx
+++ b/server/LISTAS/mi/CAÑO DE HIERRO DISMAY.xlsx
@@ -789,7 +789,7 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" s="26">
       <c r="A1" s="25" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="F1" s="3" t="n"/>
     </row>

--- a/server/LISTAS/mi/CAÑO DE HIERRO DISMAY.xlsx
+++ b/server/LISTAS/mi/CAÑO DE HIERRO DISMAY.xlsx
@@ -789,7 +789,7 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" s="26">
       <c r="A1" s="25" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
       <c r="F1" s="3" t="n"/>
     </row>
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="D29" s="21" t="n">
-        <v>1040</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1" s="26">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="D30" s="21" t="n">
-        <v>1182</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31" ht="19.5" customHeight="1" s="26">
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="D31" s="21" t="n">
-        <v>2290</v>
+        <v>872</v>
       </c>
     </row>
     <row r="32" ht="19.5" customHeight="1" s="26">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="D32" s="21" t="n">
-        <v>2570</v>
+        <v>977</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" s="26">
@@ -1004,13 +1004,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B35:D35"/>
     <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A9:E9"/>
-    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.984251968503937" bottom="0.984251968503937" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/CAÑO DE HIERRO DISMAY.xlsx
+++ b/server/LISTAS/mi/CAÑO DE HIERRO DISMAY.xlsx
@@ -789,7 +789,7 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" s="26">
       <c r="A1" s="25" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="F1" s="3" t="n"/>
     </row>
@@ -1004,13 +1004,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A9:E9"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.984251968503937" bottom="0.984251968503937" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/CAÑO DE HIERRO DISMAY.xlsx
+++ b/server/LISTAS/mi/CAÑO DE HIERRO DISMAY.xlsx
@@ -789,7 +789,7 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" s="26">
       <c r="A1" s="25" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="F1" s="3" t="n"/>
     </row>
@@ -1004,13 +1004,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B35:D35"/>
     <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A9:E9"/>
-    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.984251968503937" bottom="0.984251968503937" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/CAÑO DE HIERRO DISMAY.xlsx
+++ b/server/LISTAS/mi/CAÑO DE HIERRO DISMAY.xlsx
@@ -789,7 +789,7 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" s="26">
       <c r="A1" s="25" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="F1" s="3" t="n"/>
     </row>
@@ -1004,13 +1004,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A9:E9"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.984251968503937" bottom="0.984251968503937" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/CAÑO DE HIERRO DISMAY.xlsx
+++ b/server/LISTAS/mi/CAÑO DE HIERRO DISMAY.xlsx
@@ -789,7 +789,7 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" s="26">
       <c r="A1" s="25" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="F1" s="3" t="n"/>
     </row>
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="D29" s="21" t="n">
-        <v>420</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1" s="26">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="D30" s="21" t="n">
-        <v>496</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="31" ht="19.5" customHeight="1" s="26">
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="D31" s="21" t="n">
-        <v>872</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="32" ht="19.5" customHeight="1" s="26">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="D32" s="21" t="n">
-        <v>977</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" s="26">
@@ -1004,13 +1004,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B35:D35"/>
     <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A9:E9"/>
-    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.984251968503937" bottom="0.984251968503937" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
